--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M.reza Mahmoudzadeh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F36EBC68-D522-4565-A108-06DD89A2ABFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51935E84-1E1E-46B6-BFDD-016DCAA73F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{12E0DDF5-E4C4-4049-9239-C431D30655E9}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +475,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
